--- a/NiTiErp/wwwroot/export-files/HoSo.xlsx
+++ b/NiTiErp/wwwroot/export-files/HoSo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>DANH SÁCH HỒ SƠ NHÂN VIÊN</t>
   </si>
@@ -55,6 +55,255 @@
   </si>
   <si>
     <t>234234</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b34qt</t>
+  </si>
+  <si>
+    <t>Phòng An Toàn</t>
+  </si>
+  <si>
+    <t>45674</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e4t e </t>
+  </si>
+  <si>
+    <t>Phòng Kế Toán</t>
+  </si>
+  <si>
+    <t>456456</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18/6/2018</t>
+  </si>
+  <si>
+    <t>423423</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>546 tet</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56456754</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erge</t>
+  </si>
+  <si>
+    <t>29/5/2018</t>
+  </si>
+  <si>
+    <t>57567</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rt</t>
+  </si>
+  <si>
+    <t>17/6/2018</t>
+  </si>
+  <si>
+    <t>5675678</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwe rw </t>
+  </si>
+  <si>
+    <t>25/6/2018</t>
+  </si>
+  <si>
+    <t>6456456</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rthrt erg</t>
+  </si>
+  <si>
+    <t>75675</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4645 fgh</t>
+  </si>
+  <si>
+    <t>26/6/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 654 654654</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfgvsd fgs </t>
+  </si>
+  <si>
+    <t>6546456</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b3453 4t </t>
+  </si>
+  <si>
+    <t>12/6/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34 </t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 te tẽ </t>
+  </si>
+  <si>
+    <t>345345</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4 4g gf dgf ggf</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3453 er er </t>
+  </si>
+  <si>
+    <t>3465</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5R 344T </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w345e </t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>f sf ef wef</t>
+  </si>
+  <si>
+    <t>534534</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erte er </t>
+  </si>
+  <si>
+    <t>34534</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 345 345</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>666666666</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>56y56 65</t>
+  </si>
+  <si>
+    <t>11/6/2018</t>
+  </si>
+  <si>
+    <t>5678567856</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>gd gdf g</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>04/7/2018</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ert er</t>
+  </si>
+  <si>
+    <t>20/6/2018</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>30/6/2018</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>wef wfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> we </t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>45645</t>
   </si>
 </sst>
 </file>
@@ -424,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -497,6 +746,526 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/NiTiErp/wwwroot/export-files/HoSo.xlsx
+++ b/NiTiErp/wwwroot/export-files/HoSo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>DANH SÁCH HỒ SƠ NHÂN VIÊN</t>
   </si>
@@ -42,96 +42,102 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve"> wer we </t>
+    <t>Nguyễn</t>
   </si>
   <si>
     <t>POWACO</t>
   </si>
   <si>
+    <t>Phòng An Toàn</t>
+  </si>
+  <si>
+    <t>19/6/2018</t>
+  </si>
+  <si>
+    <t>234234</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Thanh chí minh</t>
+  </si>
+  <si>
+    <t>45674</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Lê Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Phòng Kinh Doanh</t>
+  </si>
+  <si>
+    <t>456456</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Thanh Sơn</t>
+  </si>
+  <si>
     <t>Phòng Công Nghệ Thông Tin</t>
   </si>
   <si>
-    <t>19/6/2018</t>
-  </si>
-  <si>
-    <t>234234</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b34qt</t>
-  </si>
-  <si>
-    <t>Phòng An Toàn</t>
-  </si>
-  <si>
-    <t>45674</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> e4t e </t>
+    <t>18/6/2018</t>
+  </si>
+  <si>
+    <t>423423</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Bích Lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56456754</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erge</t>
+  </si>
+  <si>
+    <t>29/5/2018</t>
+  </si>
+  <si>
+    <t>57567</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Công thanh</t>
   </si>
   <si>
     <t>Phòng Kế Toán</t>
   </si>
   <si>
-    <t>456456</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>18/6/2018</t>
-  </si>
-  <si>
-    <t>423423</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>546 tet</t>
+    <t>17/6/2018</t>
+  </si>
+  <si>
+    <t>5675678</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwe rw </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> 56456754</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> erge</t>
-  </si>
-  <si>
-    <t>29/5/2018</t>
-  </si>
-  <si>
-    <t>57567</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rt</t>
-  </si>
-  <si>
-    <t>17/6/2018</t>
-  </si>
-  <si>
-    <t>5675678</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fwe rw </t>
-  </si>
-  <si>
     <t>25/6/2018</t>
   </si>
   <si>
@@ -141,7 +147,7 @@
     <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve"> rthrt erg</t>
+    <t>Lê thah Bình nguyễn</t>
   </si>
   <si>
     <t>75675</t>
@@ -171,7 +177,10 @@
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve"> b3453 4t </t>
+    <t>Chung Quì</t>
+  </si>
+  <si>
+    <t>Phòng Kỹ Thuật Điện</t>
   </si>
   <si>
     <t>12/6/2018</t>
@@ -183,7 +192,7 @@
     <t>13</t>
   </si>
   <si>
-    <t xml:space="preserve">4 te tẽ </t>
+    <t>Minh Hoàng Bình</t>
   </si>
   <si>
     <t>345345</t>
@@ -759,70 +768,70 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>27</v>
@@ -839,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>30</v>
@@ -859,270 +868,270 @@
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>32</v>
@@ -1130,142 +1139,142 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/NiTiErp/wwwroot/export-files/HoSo.xlsx
+++ b/NiTiErp/wwwroot/export-files/HoSo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>DANH SÁCH HỒ SƠ NHÂN VIÊN</t>
   </si>
@@ -42,277 +42,1141 @@
     <t>1</t>
   </si>
   <si>
-    <t>Nguyễn</t>
-  </si>
-  <si>
-    <t>POWACO</t>
-  </si>
-  <si>
-    <t>Phòng An Toàn</t>
-  </si>
-  <si>
-    <t>19/6/2018</t>
-  </si>
-  <si>
-    <t>234234</t>
+    <t>Lâm Văn Bình</t>
+  </si>
+  <si>
+    <t>Tân Châu</t>
+  </si>
+  <si>
+    <t>NMN TC+LS</t>
+  </si>
+  <si>
+    <t>01/1/1963</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>897d909b-67cb-461b-9006-5a9c59978823</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Thanh chí minh</t>
-  </si>
-  <si>
-    <t>45674</t>
+    <t>Dương Y Sen</t>
+  </si>
+  <si>
+    <t>HTCN L.Sơn</t>
+  </si>
+  <si>
+    <t>24/1/1993</t>
+  </si>
+  <si>
+    <t>63e057fb-257b-4539-b790-2ae20d3fbef5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Lê Minh Hoàng</t>
-  </si>
-  <si>
-    <t>Phòng Kinh Doanh</t>
-  </si>
-  <si>
-    <t>456456</t>
+    <t>Vương Thị Kim Ngân</t>
+  </si>
+  <si>
+    <t>Tổ QLĐNKV VH</t>
+  </si>
+  <si>
+    <t>10/7/1985</t>
+  </si>
+  <si>
+    <t>bbcecd1a-920e-4f68-840d-ba0a0f683416</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Thanh Sơn</t>
-  </si>
-  <si>
-    <t>Phòng Công Nghệ Thông Tin</t>
-  </si>
-  <si>
-    <t>18/6/2018</t>
-  </si>
-  <si>
-    <t>423423</t>
+    <t>Phạm Vĩnh Lộc</t>
+  </si>
+  <si>
+    <t>Tổ QLĐNKV LA</t>
+  </si>
+  <si>
+    <t>29/6/1983</t>
+  </si>
+  <si>
+    <t>3764efbf-e9a4-440c-a3d6-510071228837</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Bích Lệ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56456754</t>
+    <t>Phan Thị Ngọc Trúc</t>
+  </si>
+  <si>
+    <t>24/10/1996</t>
+  </si>
+  <si>
+    <t>d278053e-b888-4f33-a1b9-23847fc76911</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve"> erge</t>
-  </si>
-  <si>
-    <t>29/5/2018</t>
-  </si>
-  <si>
-    <t>57567</t>
+    <t>Châu Phan Anh Tuấn</t>
+  </si>
+  <si>
+    <t>17/8/1983</t>
+  </si>
+  <si>
+    <t>e51217c0-d761-4688-8254-8435728f6769</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Công thanh</t>
-  </si>
-  <si>
-    <t>Phòng Kế Toán</t>
-  </si>
-  <si>
-    <t>17/6/2018</t>
-  </si>
-  <si>
-    <t>5675678</t>
+    <t>Nguyễn Minh Sơn</t>
+  </si>
+  <si>
+    <t>15/7/1978</t>
+  </si>
+  <si>
+    <t>dd2f6441-4bc3-47eb-a155-105696df64c1</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">fwe rw </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>25/6/2018</t>
-  </si>
-  <si>
-    <t>6456456</t>
+    <t>Trần Trung Hiếu</t>
+  </si>
+  <si>
+    <t>01/1/1985</t>
+  </si>
+  <si>
+    <t>33d7e62a-72bb-4bfc-bc48-fcbe0d244aa2</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Lê thah Bình nguyễn</t>
-  </si>
-  <si>
-    <t>75675</t>
+    <t>Lý Ngọc Tuấn Anh</t>
+  </si>
+  <si>
+    <t>18/7/1982</t>
+  </si>
+  <si>
+    <t>62751615-2fd7-40ed-864d-d15d5484f11a</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>4645 fgh</t>
-  </si>
-  <si>
-    <t>26/6/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 654 654654</t>
+    <t>Nguyễn Văn Lực</t>
+  </si>
+  <si>
+    <t>NMN Tân Châu</t>
+  </si>
+  <si>
+    <t>20/8/1995</t>
+  </si>
+  <si>
+    <t>49871e33-3739-4014-9f52-1ef6e13792c2</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t xml:space="preserve">dfgvsd fgs </t>
-  </si>
-  <si>
-    <t>6546456</t>
+    <t>Huỳnh Tấn Cường</t>
+  </si>
+  <si>
+    <t>10/12/1981</t>
+  </si>
+  <si>
+    <t>23552df3-3164-4638-8b02-78752843e13e</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Chung Quì</t>
-  </si>
-  <si>
-    <t>Phòng Kỹ Thuật Điện</t>
-  </si>
-  <si>
-    <t>12/6/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34 </t>
+    <t>Trần Bá Giàu</t>
+  </si>
+  <si>
+    <t>25/3/1986</t>
+  </si>
+  <si>
+    <t>0e40690b-0c36-4e29-afdd-54bc38e71b45</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Minh Hoàng Bình</t>
-  </si>
-  <si>
-    <t>345345</t>
+    <t>Nguyễn Thanh Truyền</t>
+  </si>
+  <si>
+    <t>23/9/1981</t>
+  </si>
+  <si>
+    <t>92fd0439-4cb1-445e-9d7f-ed90a53aa6fd</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>4 4g gf dgf ggf</t>
+    <t>Võ Phong Lưu</t>
+  </si>
+  <si>
+    <t>20/9/1982</t>
+  </si>
+  <si>
+    <t>84ee19b5-a27c-477f-8fb7-09acb6e578c1</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t xml:space="preserve">3453 er er </t>
-  </si>
-  <si>
-    <t>3465</t>
+    <t>Trần Thanh Tòng</t>
+  </si>
+  <si>
+    <t>Ban Giám Đốc</t>
+  </si>
+  <si>
+    <t>20/10/1976</t>
+  </si>
+  <si>
+    <t>b3cc9f47-8711-46c8-8cae-d58e849b1a09</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t xml:space="preserve">5R 344T </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> w345e </t>
+    <t>Trần Nguyễn Minh</t>
+  </si>
+  <si>
+    <t>P. Kinh Doanh</t>
+  </si>
+  <si>
+    <t>01/1/1984</t>
+  </si>
+  <si>
+    <t>008d4e90-afdf-47ae-90a0-bef6ae777e15</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>f sf ef wef</t>
-  </si>
-  <si>
-    <t>534534</t>
+    <t>Hứa Hoài Phong</t>
+  </si>
+  <si>
+    <t>09/10/1970</t>
+  </si>
+  <si>
+    <t>27632f3c-8e64-4365-a599-a696fea66002</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t xml:space="preserve">erte er </t>
-  </si>
-  <si>
-    <t>34534</t>
+    <t>Hồ Thanh Danh</t>
+  </si>
+  <si>
+    <t>14/4/1968</t>
+  </si>
+  <si>
+    <t>eead8554-fab2-414d-85be-d8b562f73754</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 345 345</t>
+    <t>Dương Thanh Cẩn</t>
+  </si>
+  <si>
+    <t>07/6/1976</t>
+  </si>
+  <si>
+    <t>78dbe8f1-740c-4994-a66f-e55fc1d5b2ea</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>666666666</t>
+    <t>Nguyễn Hữu Phước</t>
+  </si>
+  <si>
+    <t>05/2/1997</t>
+  </si>
+  <si>
+    <t>526d50b1-375f-467f-97c5-efc2beff100e</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>56y56 65</t>
-  </si>
-  <si>
-    <t>11/6/2018</t>
-  </si>
-  <si>
-    <t>5678567856</t>
+    <t>Đinh Văn Hùng</t>
+  </si>
+  <si>
+    <t>01/1/1980</t>
+  </si>
+  <si>
+    <t>86d126ec-6a99-4474-9990-55780d9a15a8</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>gd gdf g</t>
+    <t>Võ Thành Trung</t>
+  </si>
+  <si>
+    <t>10/5/1985</t>
+  </si>
+  <si>
+    <t>187f20ea-4153-45e7-8d6b-78f98038cfe8</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>04/7/2018</t>
+    <t>Nguyễn Nguyên Khương</t>
+  </si>
+  <si>
+    <t>01/1/1976</t>
+  </si>
+  <si>
+    <t>c1d3f8c4-2301-40f7-bdee-cf440d38c0dc</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t xml:space="preserve"> ert er</t>
-  </si>
-  <si>
-    <t>20/6/2018</t>
+    <t>Lê Văn Tài</t>
+  </si>
+  <si>
+    <t>08/1/1962</t>
+  </si>
+  <si>
+    <t>9385bf90-2958-4164-9326-b7c3db21c332</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
+    <t>Nguyễn Văn Phương</t>
+  </si>
+  <si>
+    <t>9642e300-f04b-4c1b-ab91-85e0309045ca</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Nguyễn Bảo Quốc</t>
+  </si>
+  <si>
+    <t>01/1/1982</t>
+  </si>
+  <si>
+    <t>7660cd86-a217-48c1-aed4-6fc74b495b09</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Phạm Hùng Sơn</t>
+  </si>
+  <si>
+    <t>21/11/1979</t>
+  </si>
+  <si>
+    <t>562e9dba-acac-4aff-aab1-23d7d131ca88</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Nhã Trúc</t>
+  </si>
+  <si>
+    <t>19/4/1983</t>
+  </si>
+  <si>
+    <t>07af81c7-f1c8-45db-9626-b3a604947cde</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>P. Kế Toán</t>
+  </si>
+  <si>
+    <t>16/11/1982</t>
+  </si>
+  <si>
+    <t>dd8fe6de-c2bf-4a95-b0a9-f1f415cee0e7</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Vũ</t>
+  </si>
+  <si>
+    <t>20/4/1981</t>
+  </si>
+  <si>
+    <t>57d99a90-873a-4854-b27c-fcc90f2e1b9b</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Trần Văn Nhựt</t>
+  </si>
+  <si>
+    <t>19/3/1978</t>
+  </si>
+  <si>
+    <t>1ba85e63-0d06-46db-9c03-34cc0ae276c4</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Lê Văn Đen</t>
+  </si>
+  <si>
+    <t>P. Kỹ Thuật Đ - N</t>
+  </si>
+  <si>
+    <t>17/12/1986</t>
+  </si>
+  <si>
+    <t>24d08143-37a8-495c-a3f1-52499b8cadb7</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>30/6/2018</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>wef wfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> we </t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>45645</t>
+    <t>Lâm Hoài An</t>
+  </si>
+  <si>
+    <t>14/5/1986</t>
+  </si>
+  <si>
+    <t>04068189-9733-4d63-bd25-538b2c2ac3a0</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Phan Tùng Nghĩa</t>
+  </si>
+  <si>
+    <t>1730b612-4151-4fe0-b2c7-c73d60d80baa</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Trần Thanh Tuấn</t>
+  </si>
+  <si>
+    <t>18/6/1975</t>
+  </si>
+  <si>
+    <t>9f50378b-c43e-4fc2-8966-bdea9274dd31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoài Tâm</t>
+  </si>
+  <si>
+    <t>01/1/1981</t>
+  </si>
+  <si>
+    <t>1770a4ac-683c-4697-8cba-f42cd9587860</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Lý Ngọc Hải</t>
+  </si>
+  <si>
+    <t>01/1/1975</t>
+  </si>
+  <si>
+    <t>01d65b5f-bab8-4456-a739-29018d957477</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Tô Hiền Sĩ</t>
+  </si>
+  <si>
+    <t>23/12/1967</t>
+  </si>
+  <si>
+    <t>d0801488-3bab-4b76-98db-9addf1bc28c8</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Đinh Thị Kiều</t>
+  </si>
+  <si>
+    <t>20/6/1985</t>
+  </si>
+  <si>
+    <t>5973ae35-01c5-4024-ad45-e955b8fa85ae</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Phan Thanh Nhiều</t>
+  </si>
+  <si>
+    <t>03/11/1989</t>
+  </si>
+  <si>
+    <t>6a167bbf-b80b-4869-aa2d-9b2184501188</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Sĩ</t>
+  </si>
+  <si>
+    <t>17/1/1973</t>
+  </si>
+  <si>
+    <t>9ca19f62-a875-4027-b4bf-1817b0b47262</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Trần Văn Tùng</t>
+  </si>
+  <si>
+    <t>10/5/1979</t>
+  </si>
+  <si>
+    <t>0e915d99-a7ae-41b7-9a8f-4aed7f46a014</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Bùi Long Định</t>
+  </si>
+  <si>
+    <t>2d32b5f4-f56f-46f3-9a8a-4f598be3660c</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Tuấn</t>
+  </si>
+  <si>
+    <t>13/3/1978</t>
+  </si>
+  <si>
+    <t>a963c1f7-1c4d-40f5-a770-bb51d9a23a3d</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Lý Ngọc Hiếu</t>
+  </si>
+  <si>
+    <t>06/10/1959</t>
+  </si>
+  <si>
+    <t>0d8c18f3-badd-414d-9f68-083fac77a9d2</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Huỳnh Thành Nhân</t>
+  </si>
+  <si>
+    <t>bd12b885-be6b-43e1-a121-5118cb333145</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Trần Thị Huệ</t>
+  </si>
+  <si>
+    <t>14/10/1985</t>
+  </si>
+  <si>
+    <t>09357121-9a6f-40fa-aa12-e080ce79f3d2</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Lê Văn Thơ</t>
+  </si>
+  <si>
+    <t>04/2/1979</t>
+  </si>
+  <si>
+    <t>39debe1a-fb59-406e-a5a3-c41ceef951ed</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Phan Văn Trung</t>
+  </si>
+  <si>
+    <t>90e6f757-81cf-4196-bd3f-43a790239258</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Lê Minh Trí</t>
+  </si>
+  <si>
+    <t>01/1/1969</t>
+  </si>
+  <si>
+    <t>157e4581-e731-45f9-928e-172e20ed5cd3</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Lâm Thành Phước</t>
+  </si>
+  <si>
+    <t>09/10/1977</t>
+  </si>
+  <si>
+    <t>200eddad-fab7-4b36-aab8-6f592b09da74</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Hồ Thanh Sơn</t>
+  </si>
+  <si>
+    <t>19/1/1972</t>
+  </si>
+  <si>
+    <t>07441ab3-627a-4b83-aead-4122126dd6c9</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Trần Thanh Lập</t>
+  </si>
+  <si>
+    <t>12/6/1976</t>
+  </si>
+  <si>
+    <t>fa0b1448-9043-4c0e-872d-ca7f5905c649</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Tú</t>
+  </si>
+  <si>
+    <t>08/5/1984</t>
+  </si>
+  <si>
+    <t>bc58e42f-345d-4af6-a158-921a6d4586a9</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thi</t>
+  </si>
+  <si>
+    <t>82d1e7db-2b18-41bf-8c41-12185efe878c</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Nguyễn Nam Nhi</t>
+  </si>
+  <si>
+    <t>02/4/1996</t>
+  </si>
+  <si>
+    <t>fe966272-aecd-4c6f-b0d9-d983083d3b5c</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Trí</t>
+  </si>
+  <si>
+    <t>04/12/1964</t>
+  </si>
+  <si>
+    <t>9608ac0b-755c-44ee-ab98-854a1f31a5f0</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Chung</t>
+  </si>
+  <si>
+    <t>01/1/1968</t>
+  </si>
+  <si>
+    <t>41fcce84-6771-4891-b2bd-5f76072ffcb8</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Lê Dương Nhựt Thọ</t>
+  </si>
+  <si>
+    <t>06/6/1978</t>
+  </si>
+  <si>
+    <t>3740e23e-7ad4-4d21-acc4-0455270d86ee</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Phan Thanh Bằng</t>
+  </si>
+  <si>
+    <t>04/5/2001</t>
+  </si>
+  <si>
+    <t>1b8fc1ba-51bc-415c-a064-dace2b5ea1bc</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Đặng Phước Sang</t>
+  </si>
+  <si>
+    <t>e0aea837-2109-4ff6-b970-4b090412861b</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Lê Minh Mẫn</t>
+  </si>
+  <si>
+    <t>15/10/1976</t>
+  </si>
+  <si>
+    <t>8f35622b-564b-4650-abd8-b32f7b849825</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Trung</t>
+  </si>
+  <si>
+    <t>08/7/1984</t>
+  </si>
+  <si>
+    <t>5e3aedf8-2b5f-4c71-a95d-b331105e5345</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Trần Văn Đông</t>
+  </si>
+  <si>
+    <t>75878558-d53c-4ee1-92d2-07314bc09a31</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Trương Tuyết Minh</t>
+  </si>
+  <si>
+    <t>03/6/1993</t>
+  </si>
+  <si>
+    <t>df99e6d9-bd3f-473d-90ab-4803a739cb3b</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>09/7/1989</t>
+  </si>
+  <si>
+    <t>82cecad8-122a-496b-8427-457485fd1134</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Ngô Văn Huệ</t>
+  </si>
+  <si>
+    <t>14/4/1978</t>
+  </si>
+  <si>
+    <t>e2878086-6630-4d98-9284-97a3e1fa5af6</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Đào Trọng Hiếu</t>
+  </si>
+  <si>
+    <t>24/3/1980</t>
+  </si>
+  <si>
+    <t>55611add-51ba-418f-af2e-440c622d67c4</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Lý Ngọc Trung</t>
+  </si>
+  <si>
+    <t>14/1/1962</t>
+  </si>
+  <si>
+    <t>300699d5-d0fb-49df-810e-2d9fafe5afc6</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Đoàn Ngô Đăng Khoa</t>
+  </si>
+  <si>
+    <t>06/3/1984</t>
+  </si>
+  <si>
+    <t>d889dd58-91d8-41c3-aa19-c07474c0ca3c</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hùng</t>
+  </si>
+  <si>
+    <t>16/10/1983</t>
+  </si>
+  <si>
+    <t>940a6bf7-05c2-4fe9-89d4-30dfcfbaa0c1</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Võ Hữu Phúc</t>
+  </si>
+  <si>
+    <t>30/8/1983</t>
+  </si>
+  <si>
+    <t>da70e32a-271c-46b4-95fc-7fc2126e16d0</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Tài</t>
+  </si>
+  <si>
+    <t>08/3/1986</t>
+  </si>
+  <si>
+    <t>8fc49066-d7c2-44c6-938a-5621798df782</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Châu Ngọc Hậu</t>
+  </si>
+  <si>
+    <t>10/2/1984</t>
+  </si>
+  <si>
+    <t>59c7cc51-8d4a-4569-8764-0f3e45311b88</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Lê Phước Hiệp</t>
+  </si>
+  <si>
+    <t>09/9/1990</t>
+  </si>
+  <si>
+    <t>0c6532e2-f0c9-4440-94df-c680f5fac4f5</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hải</t>
+  </si>
+  <si>
+    <t>01/1/1979</t>
+  </si>
+  <si>
+    <t>8fce888f-f00f-4231-9101-d4751256eabf</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Đặng Thị Thảo Uyên</t>
+  </si>
+  <si>
+    <t>04/8/1988</t>
+  </si>
+  <si>
+    <t>5604e9ec-d0fe-4fda-8049-be1901a6d3dc</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỡn</t>
+  </si>
+  <si>
+    <t>83997487-0395-4973-becc-e3ffc3259ff9</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Khách</t>
+  </si>
+  <si>
+    <t>01/11/1971</t>
+  </si>
+  <si>
+    <t>65071d29-d248-4919-a47a-17f84687f05b</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Trần Văn Nên</t>
+  </si>
+  <si>
+    <t>13/8/1971</t>
+  </si>
+  <si>
+    <t>4e36676c-b752-4198-97df-13f82139dddb</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Nguyễn Bảo Xuyên</t>
+  </si>
+  <si>
+    <t>18/4/1981</t>
+  </si>
+  <si>
+    <t>01d07581-3489-461b-9eff-ebd8a981b3a6</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Yến</t>
+  </si>
+  <si>
+    <t>05/3/1993</t>
+  </si>
+  <si>
+    <t>01de6be3-9fbb-45cb-b8fc-3216cf72bc53</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Huỳnh Chí Lý</t>
+  </si>
+  <si>
+    <t>08/8/1971</t>
+  </si>
+  <si>
+    <t>55f33b75-4cb1-4562-a061-4e927c889d61</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Trần Văn Quốc</t>
+  </si>
+  <si>
+    <t>05/2/1969</t>
+  </si>
+  <si>
+    <t>aff8655e-17ad-48cc-a8d2-9c3072c95830</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>01/11/1976</t>
+  </si>
+  <si>
+    <t>75f69408-09fa-4d21-8e34-4c8ad454ffa7</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Đặng Văn Tiền</t>
+  </si>
+  <si>
+    <t>59f353b5-a666-41e3-8056-f20424497a68</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Trần Minh Quang</t>
+  </si>
+  <si>
+    <t>10/10/1985</t>
+  </si>
+  <si>
+    <t>a227f2b9-46af-4b5d-8381-9f173d84218e</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Nhân</t>
+  </si>
+  <si>
+    <t>05/7/1971</t>
+  </si>
+  <si>
+    <t>75bf9a2a-7780-4e20-8e52-698938efcd0c</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Trương Hải Bằng</t>
+  </si>
+  <si>
+    <t>25bf4cf3-4ad0-47e3-a325-9265b6a95400</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Ngô Hữu Nhật Quang</t>
+  </si>
+  <si>
+    <t>14/2/1984</t>
+  </si>
+  <si>
+    <t>b659b64e-d8af-4e54-a30b-975796187a12</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Nguyễn Bằng Phương</t>
+  </si>
+  <si>
+    <t>15/5/1969</t>
+  </si>
+  <si>
+    <t>b7e9fd30-3c30-4dbf-82e4-241907ce6394</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Võ Phú Quý</t>
+  </si>
+  <si>
+    <t>10/9/1976</t>
+  </si>
+  <si>
+    <t>ac0d7718-adbe-48cf-b85b-77285c95f731</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>31/1/1972</t>
+  </si>
+  <si>
+    <t>e4cb3a69-17c9-437f-8abe-23579fc6038b</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Lê Thành Vương</t>
+  </si>
+  <si>
+    <t>453b5275-17fa-4ae1-a921-ea6384f08d9f</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Kiên</t>
+  </si>
+  <si>
+    <t>521418a8-839d-48c7-b125-9565bd11e400</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quyên</t>
+  </si>
+  <si>
+    <t>30/3/1979</t>
+  </si>
+  <si>
+    <t>5ce9e966-04db-465b-897f-9912080107ed</t>
   </si>
 </sst>
 </file>
@@ -682,7 +1546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -756,525 +1620,2193 @@
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>64</v>
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>91</v>
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>98</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
